--- a/public/hello_world.xlsx
+++ b/public/hello_world.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>LAPORAN MATERIAL BELUM TERBAYAR</t>
   </si>
   <si>
-    <t>PROJECT 1</t>
+    <t>PROJECT projek coba</t>
   </si>
   <si>
     <t>TGL</t>
@@ -46,61 +46,70 @@
     <t>SUB TOTAL</t>
   </si>
   <si>
-    <t>09-23</t>
-  </si>
-  <si>
-    <t>Putra Andalas</t>
-  </si>
-  <si>
-    <t>Pacul Tebal</t>
-  </si>
-  <si>
-    <t>Linggis (Besar) - Klenyem</t>
-  </si>
-  <si>
-    <t>Bodem</t>
-  </si>
-  <si>
-    <t>Singgrong</t>
-  </si>
-  <si>
-    <t>Sekop</t>
-  </si>
-  <si>
-    <t>Betel</t>
-  </si>
-  <si>
-    <t>benang nylon</t>
-  </si>
-  <si>
-    <t>paku plafon</t>
-  </si>
-  <si>
-    <t>paku usuk</t>
-  </si>
-  <si>
-    <t>titip</t>
-  </si>
-  <si>
     <t>Rincian</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>08-23</t>
-  </si>
-  <si>
-    <t>08-30</t>
-  </si>
-  <si>
-    <t>pelunasan</t>
+    <t>LAPORAN MATERIAL BELUM TERBAYAR BULAN OCTOBER</t>
+  </si>
+  <si>
+    <t>10-19</t>
+  </si>
+  <si>
+    <t>depo batu</t>
+  </si>
+  <si>
+    <t>batu besar</t>
+  </si>
+  <si>
+    <t>10-31</t>
+  </si>
+  <si>
+    <t>January2023</t>
+  </si>
+  <si>
+    <t>February2023</t>
+  </si>
+  <si>
+    <t>March2023</t>
+  </si>
+  <si>
+    <t>April2023</t>
+  </si>
+  <si>
+    <t>May2023</t>
+  </si>
+  <si>
+    <t>June2023</t>
+  </si>
+  <si>
+    <t>July2023</t>
+  </si>
+  <si>
+    <t>August2023</t>
+  </si>
+  <si>
+    <t>September2023</t>
+  </si>
+  <si>
+    <t>October2023</t>
+  </si>
+  <si>
+    <t>November2023</t>
+  </si>
+  <si>
+    <t>December2023</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Belum Terbayar</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>depo pasir</t>
   </si>
 </sst>
 </file>
@@ -136,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,15 +153,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,28 +477,46 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A3" sqref="A3:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2"/>
+    </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,153 +537,37 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>175000.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>420000.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>80000.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>160000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>160000.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>25000.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>200000.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>140000.0</v>
-      </c>
-      <c r="H14">
-        <v>1660000.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>400000.0</v>
-      </c>
-      <c r="H15">
-        <v>1260000.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>1260000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>1660000.0</v>
-      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -662,28 +589,43 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A3" sqref="A3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -704,158 +646,80 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8000.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>80000.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>80000</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>175000.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>420000.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>80000.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>160000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>160000.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>25000.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>200000.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>140000.0</v>
-      </c>
-      <c r="H14">
-        <v>1660000.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>500000.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>1160000.0</v>
-      </c>
-      <c r="H16">
-        <v>1660000.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>1660000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>1660000</v>
-      </c>
+      <c r="D10" s="2">
+        <v>80000</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -883,32 +747,183 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A2" sqref="A2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <f>Terbayar!D19</f>
-        <v>1660000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
+        <f>SUM(B3:N3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <f>Terbayar!D9</f>
+        <v>80000</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <f>SUM(B4:N4)</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <f>SUM(B3:B5)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <f>SUM(C3:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(D3:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f>SUM(E3:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f>SUM(F3:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SUM(G3:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>SUM(H3:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f>SUM(I3:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f>SUM(J3:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f>SUM(K3:K5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f>SUM(L3:L5)</f>
+        <v>80000</v>
+      </c>
+      <c r="M5" s="2">
+        <f>SUM(M3:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <f>SUM(N3:N5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <f>SUM(O3:O5)</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/public/hello_world.xlsx
+++ b/public/hello_world.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>LAPORAN MATERIAL BELUM TERBAYAR</t>
   </si>
   <si>
-    <t>PROJECT projek coba</t>
+    <t>PROJECT Project 1</t>
   </si>
   <si>
     <t>TGL</t>
@@ -46,25 +46,70 @@
     <t>SUB TOTAL</t>
   </si>
   <si>
+    <t>11-10</t>
+  </si>
+  <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>goods 1</t>
+  </si>
+  <si>
+    <t>goods 3</t>
+  </si>
+  <si>
+    <t>11-25</t>
+  </si>
+  <si>
+    <t>titip</t>
+  </si>
+  <si>
+    <t>11-28</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>goods 2</t>
+  </si>
+  <si>
+    <t>10-28</t>
+  </si>
+  <si>
+    <t>10-31</t>
+  </si>
+  <si>
     <t>Rincian</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>LAPORAN MATERIAL BELUM TERBAYAR BULAN OCTOBER</t>
-  </si>
-  <si>
-    <t>10-19</t>
-  </si>
-  <si>
-    <t>depo batu</t>
-  </si>
-  <si>
-    <t>batu besar</t>
-  </si>
-  <si>
-    <t>10-31</t>
+    <t>LAPORAN MATERIAL BELUM TERBAYAR BULAN NOVEMBER</t>
+  </si>
+  <si>
+    <t>10-06</t>
+  </si>
+  <si>
+    <t>11-29</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>Supplier 2</t>
+  </si>
+  <si>
+    <t>10-25</t>
+  </si>
+  <si>
+    <t>11-05</t>
+  </si>
+  <si>
+    <t>pelunasan</t>
+  </si>
+  <si>
+    <t>10-12</t>
   </si>
   <si>
     <t>January2023</t>
@@ -107,9 +152,6 @@
   </si>
   <si>
     <t>Belum Terbayar</t>
-  </si>
-  <si>
-    <t>depo pasir</t>
   </si>
 </sst>
 </file>
@@ -477,10 +519,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:H7"/>
+      <selection activeCell="A3" sqref="A3:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,30 +579,234 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100000.0</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>200000.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15000.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>60000.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>300000.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>350000.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>200000.0</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>50000.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>510000</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>510000</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -589,17 +835,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:H10"/>
+      <selection activeCell="A3" sqref="A3:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -647,46 +893,52 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>8000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="G6" s="2">
-        <v>80000.0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
+        <v>200000.0</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200000.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -696,12 +948,8 @@
     <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>80000</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -710,16 +958,224 @@
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>80000</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>180000.0</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>90000.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>270000.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>450000.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2">
+        <v>250000.0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>450000.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>200000.0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>600000</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2">
+        <v>450000</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1050000</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -757,54 +1213,56 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>510000</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -815,16 +1273,19 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2">
+        <f>Terbayar!D22</f>
+        <v>600000</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2">
         <f>SUM(B3:N3)</f>
-        <v>0</v>
+        <v>1110000</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -836,24 +1297,24 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <f>Terbayar!D9</f>
-        <v>80000</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <f>Terbayar!D23</f>
+        <v>450000</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2">
         <f>SUM(B4:N4)</f>
-        <v>80000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <f>SUM(B3:B5)</f>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(C3:C5)</f>
@@ -893,11 +1354,11 @@
       </c>
       <c r="L5" s="2">
         <f>SUM(L3:L5)</f>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f>SUM(M3:M5)</f>
-        <v>0</v>
+        <v>1050000</v>
       </c>
       <c r="N5" s="2">
         <f>SUM(N3:N5)</f>
@@ -905,7 +1366,7 @@
       </c>
       <c r="O5" s="2">
         <f>SUM(O3:O5)</f>
-        <v>80000</v>
+        <v>1560000</v>
       </c>
     </row>
     <row r="6" spans="1:15">
